--- a/Descargas/R15_7º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Agosto.xlsx
+++ b/Descargas/R15_7º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Agosto.xlsx
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="B35" s="65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="B136" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="B137" s="65">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138">
@@ -1631,7 +1631,7 @@
         </is>
       </c>
       <c r="B143" s="65">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="144">
